--- a/CasaAPI/FormatFiles/ProductDesignImportFileFormat.xlsx
+++ b/CasaAPI/FormatFiles/ProductDesignImportFileFormat.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adits_Projects\CASAPanel\Code\CasaAPI\CasaAPI\FormatFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA893A0-9416-4927-A328-E6499721EB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{91320ECF-EFEC-42E7-AA86-F43F29429E86}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>IsActive</t>
   </si>
@@ -70,12 +64,15 @@
   </si>
   <si>
     <t>BoxCoverageAreaSqMeter</t>
+  </si>
+  <si>
+    <t>FinishName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -219,7 +216,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -413,27 +410,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DE3E01-65B7-49C5-90F9-53A1DEE3D096}">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="12.28515625" customWidth="1"/>
+    <col min="2" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -477,12 +476,15 @@
         <v>14</v>
       </c>
       <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{990FE04E-0A5F-4800-BBCE-E49BFFADC6DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
